--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/modifyNetWorkAtt.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/modifyNetWorkAtt.xlsx
@@ -1,25 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>del_property</t>
+  </si>
+  <si>
+    <t>Delete Attributes</t>
+  </si>
+  <si>
+    <t>del_with_vm</t>
+  </si>
+  <si>
+    <t>Delete on instance termination</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>删除属性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>随实例删除</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +107,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,31 +448,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>del_property</v>
-      </c>
-      <c r="B1" t="str">
-        <v>删除属性</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>del_with_vm</v>
-      </c>
-      <c r="B2" t="str">
-        <v>随实例删除</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError sqref="C1:C2 A1:A2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>